--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/7 Cuestionario con Presupuestos.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/7 Cuestionario con Presupuestos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA4A1A-4513-4693-9657-16839B502B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7224EAE-7E7F-4F7F-B468-7AB7C780D1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,22 +124,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Del 01 de Enero al 31 de Diciembre de 2023 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                </t>
-    </r>
-  </si>
-  <si>
     <t>Cuestionario con Presupuestos</t>
   </si>
   <si>
@@ -162,6 +146,22 @@
   </si>
   <si>
     <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <r>
+      <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -365,6 +365,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,7 +728,7 @@
   <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +747,7 @@
       <c r="C3" s="21"/>
       <c r="F3" s="1"/>
       <c r="G3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -758,7 +764,7 @@
     </row>
     <row r="6" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -768,31 +774,39 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1012,6 +1026,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
